--- a/Constrained_Head_BC/Code/cdec_reservoirs.xlsx
+++ b/Constrained_Head_BC/Code/cdec_reservoirs.xlsx
@@ -59,12 +59,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="Tahoma"/>
       <family val="2"/>
       <color indexed="81"/>
@@ -76,6 +70,12 @@
       <b val="1"/>
       <color indexed="81"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -148,7 +148,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -241,6 +241,12 @@
       <text>
         <t>Anchor, Nicholas@DWR:
 Manually input for now</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Anchor, Nicholas@DWR:
+Changed to code 15 and monthly due to longer record</t>
       </text>
     </comment>
     <comment ref="A9" authorId="0" shapeId="0">
@@ -545,7 +551,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -656,7 +662,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>6: RES ELE</t>
+          <t>15: STORAGE</t>
         </is>
       </c>
       <c r="D4">
@@ -669,7 +675,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G4">

--- a/Constrained_Head_BC/Code/cdec_reservoirs.xlsx
+++ b/Constrained_Head_BC/Code/cdec_reservoirs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanchor\Documents\GitHub\C2VSimFGv2.0_surface_water\Constrained_Head_BC\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73143705-90D3-4714-BB11-FA4AD7999381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95DF9E-D65D-464A-81A1-3000F638B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,6 +159,9 @@
     <t>CMN</t>
   </si>
   <si>
+    <t>Woodward</t>
+  </si>
+  <si>
     <t>Woodward Reservoir</t>
   </si>
   <si>
@@ -2623,9 +2626,6 @@
   </si>
   <si>
     <t>Event</t>
-  </si>
-  <si>
-    <t>Woodward</t>
   </si>
 </sst>
 </file>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>841</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="str">
@@ -5252,30 +5252,30 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>1308000</v>
@@ -5283,16 +5283,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>22566</v>
@@ -5300,16 +5300,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>8892</v>
@@ -5317,16 +5317,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>6200</v>
@@ -5334,16 +5334,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>331060</v>
@@ -5351,16 +5351,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>7700</v>
@@ -5368,16 +5368,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>103000</v>
@@ -5385,16 +5385,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>44100</v>
@@ -5402,16 +5402,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>1602000</v>
@@ -5419,16 +5419,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
       </c>
       <c r="E11">
         <v>1530</v>
@@ -5436,16 +5436,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>1070</v>
@@ -5453,16 +5453,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>67520</v>
@@ -5470,16 +5470,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>40620</v>
@@ -5490,13 +5490,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <v>143700</v>
@@ -5504,16 +5504,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>4300</v>
@@ -5521,16 +5521,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>40870</v>
@@ -5538,16 +5538,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>36505</v>
@@ -5555,16 +5555,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>97800</v>
@@ -5572,16 +5572,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>34805</v>
@@ -5589,16 +5589,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>74000</v>
@@ -5606,16 +5606,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>5250</v>
@@ -5623,16 +5623,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23">
         <v>49930</v>
@@ -5640,16 +5640,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24">
         <v>150000</v>
@@ -5657,16 +5657,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>966000</v>
@@ -5674,16 +5674,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>68510</v>
@@ -5691,16 +5691,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>144591</v>
@@ -5708,16 +5708,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>325000</v>
@@ -5725,16 +5725,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29">
         <v>193305</v>
@@ -5742,16 +5742,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E30">
         <v>104500</v>
@@ -5759,16 +5759,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E31">
         <v>10438</v>
@@ -5776,16 +5776,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E32">
         <v>10281</v>
@@ -5793,16 +5793,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>273500</v>
@@ -5810,16 +5810,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E34">
         <v>313000</v>
@@ -5827,16 +5827,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E35">
         <v>29000</v>
@@ -5844,16 +5844,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E36">
         <v>2447650</v>
@@ -5861,16 +5861,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E37">
         <v>526800</v>
@@ -5878,16 +5878,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E38">
         <v>5555</v>
@@ -5895,16 +5895,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E39">
         <v>275</v>
@@ -5915,13 +5915,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E40">
         <v>417120</v>
@@ -5929,16 +5929,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E41">
         <v>45410</v>
@@ -5946,16 +5946,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E42">
         <v>122400</v>
@@ -5963,16 +5963,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E43">
         <v>22340</v>
@@ -5980,16 +5980,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E44">
         <v>9738</v>
@@ -5997,16 +5997,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E45">
         <v>183465</v>
@@ -6014,16 +6014,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E46">
         <v>68865</v>
@@ -6031,16 +6031,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E47">
         <v>238000</v>
@@ -6048,16 +6048,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E48">
         <v>123300</v>
@@ -6065,16 +6065,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E49">
         <v>11740</v>
@@ -6082,16 +6082,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E50">
         <v>100000</v>
@@ -6099,16 +6099,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E51">
         <v>22541</v>
@@ -6116,16 +6116,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E52">
         <v>83000</v>
@@ -6133,16 +6133,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E53">
         <v>77100</v>
@@ -6150,16 +6150,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E54">
         <v>810000</v>
@@ -6167,16 +6167,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55">
         <v>10300</v>
@@ -6184,16 +6184,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" t="s">
         <v>226</v>
-      </c>
-      <c r="B56" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" t="s">
-        <v>224</v>
-      </c>
-      <c r="D56" t="s">
-        <v>225</v>
       </c>
       <c r="E56">
         <v>9700</v>
@@ -6201,16 +6201,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E57">
         <v>2030000</v>
@@ -6218,16 +6218,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E58">
         <v>64320</v>
@@ -6235,16 +6235,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E59">
         <v>50000</v>
@@ -6252,16 +6252,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E60">
         <v>20000</v>
@@ -6269,16 +6269,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E61">
         <v>125000</v>
@@ -6286,16 +6286,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E62">
         <v>7967</v>
@@ -6303,16 +6303,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E63">
         <v>112807</v>
@@ -6320,16 +6320,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E64">
         <v>70000</v>
@@ -6337,16 +6337,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E65">
         <v>28600</v>
@@ -6354,16 +6354,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E66">
         <v>51000</v>
@@ -6371,16 +6371,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E67">
         <v>1024600</v>
@@ -6388,16 +6388,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E68">
         <v>64406</v>
@@ -6405,16 +6405,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E69">
         <v>136400</v>
@@ -6422,16 +6422,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E70">
         <v>977000</v>
@@ -6439,16 +6439,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E71">
         <v>55477</v>
@@ -6456,16 +6456,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72">
         <v>13940</v>
@@ -6473,16 +6473,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E73">
         <v>52000</v>
@@ -6490,16 +6490,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D74" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E74">
         <v>9998</v>
@@ -6507,16 +6507,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E75">
         <v>94720</v>
@@ -6524,16 +6524,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E76">
         <v>3320</v>
@@ -6541,16 +6541,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E77">
         <v>500</v>
@@ -6558,16 +6558,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E78">
         <v>17228</v>
@@ -6575,16 +6575,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D79" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E79">
         <v>1200</v>
@@ -6592,16 +6592,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B80" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E80">
         <v>47525</v>
@@ -6609,16 +6609,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B81" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C81" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D81" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E81">
         <v>30251</v>
@@ -6626,16 +6626,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E82">
         <v>207600</v>
@@ -6643,16 +6643,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C83" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E83">
         <v>90000</v>
@@ -6660,16 +6660,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E84">
         <v>14000</v>
@@ -6677,16 +6677,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B85" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C85" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" t="s">
         <v>328</v>
-      </c>
-      <c r="D85" t="s">
-        <v>327</v>
       </c>
       <c r="E85">
         <v>31000</v>
@@ -6694,16 +6694,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B86" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D86" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E86">
         <v>50000</v>
@@ -6711,16 +6711,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B87" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C87" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D87" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E87">
         <v>89800</v>
@@ -6728,16 +6728,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B88" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E88">
         <v>360000</v>
@@ -6745,16 +6745,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C89" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D89" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E89">
         <v>648000</v>
@@ -6762,16 +6762,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B90" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C90" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D90" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E90">
         <v>46600</v>
@@ -6779,16 +6779,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C91" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D91" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E91">
         <v>43496</v>
@@ -6796,16 +6796,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C92" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D92" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E92">
         <v>17500</v>
@@ -6813,16 +6813,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>357</v>
+      </c>
+      <c r="B93" t="s">
+        <v>354</v>
+      </c>
+      <c r="C93" t="s">
+        <v>355</v>
+      </c>
+      <c r="D93" t="s">
         <v>356</v>
-      </c>
-      <c r="B93" t="s">
-        <v>353</v>
-      </c>
-      <c r="C93" t="s">
-        <v>354</v>
-      </c>
-      <c r="D93" t="s">
-        <v>355</v>
       </c>
       <c r="E93">
         <v>17295</v>
@@ -6830,16 +6830,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B94" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C94" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D94" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E94">
         <v>300000</v>
@@ -6847,16 +6847,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B95" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D95" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E95">
         <v>24300</v>
@@ -6864,16 +6864,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B96" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C96" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D96" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E96">
         <v>568000</v>
@@ -6881,16 +6881,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B97" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E97">
         <v>69205</v>
@@ -6898,16 +6898,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E98">
         <v>4968</v>
@@ -6915,16 +6915,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E99">
         <v>3250</v>
@@ -6932,16 +6932,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E100">
         <v>41000</v>
@@ -6949,16 +6949,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D101" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E101">
         <v>9790</v>
@@ -6966,16 +6966,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C102" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D102" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E102">
         <v>23772</v>
@@ -6983,16 +6983,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B103" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C103" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D103" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E103">
         <v>4200</v>
@@ -7000,16 +7000,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D104" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E104">
         <v>515615</v>
@@ -7017,16 +7017,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C105" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E105">
         <v>32900</v>
@@ -7034,16 +7034,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B106" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C106" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D106" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E106">
         <v>34600</v>
@@ -7051,16 +7051,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B107" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C107" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E107">
         <v>4600</v>
@@ -7068,16 +7068,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B108" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C108" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D108" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E108">
         <v>14660</v>
@@ -7085,16 +7085,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B109" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C109" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D109" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E109">
         <v>4250</v>
@@ -7102,16 +7102,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B110" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C110" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E110">
         <v>500</v>
@@ -7119,16 +7119,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B111" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C111" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E111">
         <v>341</v>
@@ -7136,16 +7136,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B112" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C112" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D112" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E112">
         <v>93010</v>
@@ -7153,16 +7153,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B113" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C113" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D113" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E113">
         <v>48900</v>
@@ -7170,16 +7170,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B114" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C114" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E114">
         <v>18534</v>
@@ -7187,16 +7187,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B115" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C115" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D115" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E115">
         <v>69306</v>
@@ -7204,16 +7204,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B116" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C116" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D116" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E116">
         <v>49388</v>
@@ -7221,16 +7221,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B117" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C117" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D117" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E117">
         <v>49849</v>
@@ -7238,16 +7238,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B118" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C118" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D118" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E118">
         <v>80500</v>
@@ -7255,16 +7255,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B119" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C119" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D119" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E119">
         <v>89278</v>
@@ -7272,16 +7272,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B120" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C120" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D120" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E120">
         <v>4600</v>
@@ -7289,16 +7289,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B121" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C121" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D121" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E121">
         <v>1062000</v>
@@ -7306,16 +7306,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B122" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C122" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D122" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E122">
         <v>25400</v>
@@ -7323,16 +7323,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B123" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C123" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D123" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E123">
         <v>160000</v>
@@ -7340,16 +7340,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B124" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C124" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D124" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E124">
         <v>8127</v>
@@ -7357,16 +7357,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B125" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C125" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E125">
         <v>48750</v>
@@ -7374,16 +7374,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B126" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C126" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D126" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E126">
         <v>6228</v>
@@ -7391,16 +7391,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B127" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C127" t="s">
+        <v>474</v>
+      </c>
+      <c r="D127" t="s">
         <v>473</v>
-      </c>
-      <c r="D127" t="s">
-        <v>472</v>
       </c>
       <c r="E127">
         <v>15000</v>
@@ -7408,16 +7408,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B128" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C128" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D128" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E128">
         <v>1800</v>
@@ -7425,16 +7425,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B129" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C129" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D129" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E129">
         <v>35300</v>
@@ -7442,16 +7442,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E130">
         <v>1024600</v>
@@ -7459,16 +7459,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B131" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C131" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E131">
         <v>9730</v>
@@ -7479,13 +7479,13 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C132" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D132" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E132">
         <v>29000</v>
@@ -7493,16 +7493,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B133" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C133" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D133" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E133">
         <v>26159008</v>
@@ -7510,16 +7510,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B134" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C134" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D134" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E134">
         <v>1810000</v>
@@ -7527,16 +7527,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B135" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C135" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D135" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E135">
         <v>179300</v>
@@ -7544,16 +7544,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B136" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C136" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D136" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E136">
         <v>520500</v>
@@ -7561,16 +7561,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B137" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C137" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D137" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E137">
         <v>6682</v>
@@ -7578,16 +7578,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B138" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C138" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D138" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E138">
         <v>24800</v>
@@ -7595,16 +7595,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B139" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C139" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D139" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E139">
         <v>50694</v>
@@ -7612,16 +7612,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B140" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C140" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D140" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E140">
         <v>123000</v>
@@ -7629,16 +7629,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B141" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C141" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D141" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E141">
         <v>4684</v>
@@ -7646,16 +7646,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B142" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C142" t="s">
+        <v>520</v>
+      </c>
+      <c r="D142" t="s">
         <v>519</v>
-      </c>
-      <c r="D142" t="s">
-        <v>518</v>
       </c>
       <c r="E142">
         <v>20400</v>
@@ -7666,13 +7666,13 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C143" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D143" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E143">
         <v>9000</v>
@@ -7680,16 +7680,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B144" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C144" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D144" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E144">
         <v>22400</v>
@@ -7697,16 +7697,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B145" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D145" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E145">
         <v>382770</v>
@@ -7714,16 +7714,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B146" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C146" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D146" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E146">
         <v>317000</v>
@@ -7731,16 +7731,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B147" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C147" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E147">
         <v>2400000</v>
@@ -7748,16 +7748,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B148" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C148" t="s">
+        <v>540</v>
+      </c>
+      <c r="D148" t="s">
         <v>539</v>
-      </c>
-      <c r="D148" t="s">
-        <v>538</v>
       </c>
       <c r="E148">
         <v>8991</v>
@@ -7765,16 +7765,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B149" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C149" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D149" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E149">
         <v>24000</v>
@@ -7782,16 +7782,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B150" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C150" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D150" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E150">
         <v>56400</v>
@@ -7799,16 +7799,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B151" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C151" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D151" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E151">
         <v>3424753</v>
@@ -7816,16 +7816,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B152" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C152" t="s">
+        <v>554</v>
+      </c>
+      <c r="D152" t="s">
         <v>553</v>
-      </c>
-      <c r="D152" t="s">
-        <v>552</v>
       </c>
       <c r="E152">
         <v>3600</v>
@@ -7833,16 +7833,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B153" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C153" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D153" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E153">
         <v>203795</v>
@@ -7850,16 +7850,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B154" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C154" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D154" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E154">
         <v>1000000</v>
@@ -7867,16 +7867,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B155" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C155" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D155" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E155">
         <v>314400</v>
@@ -7884,16 +7884,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B156" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C156" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D156" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E156">
         <v>131452</v>
@@ -7901,16 +7901,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B157" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C157" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D157" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E157">
         <v>29800</v>
@@ -7918,16 +7918,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B158" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C158" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D158" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E158">
         <v>83244</v>
@@ -7935,16 +7935,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B159" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C159" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E159">
         <v>15890</v>
@@ -7952,16 +7952,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B160" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C160" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E160">
         <v>34610</v>
@@ -7969,30 +7969,30 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B161" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C161" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D161" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B162" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C162" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D162" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E162">
         <v>24322000</v>
@@ -8000,16 +8000,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B163" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C163" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D163" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E163">
         <v>180000</v>
@@ -8017,16 +8017,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B164" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C164" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D164" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E164">
         <v>5654</v>
@@ -8034,16 +8034,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B165" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C165" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D165" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E165">
         <v>1450</v>
@@ -8051,16 +8051,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B166" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C166" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D166" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E166">
         <v>35000</v>
@@ -8068,16 +8068,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B167" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C167" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D167" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E167">
         <v>11847</v>
@@ -8085,16 +8085,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B168" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C168" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D168" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E168">
         <v>15554</v>
@@ -8102,16 +8102,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B169" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C169" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D169" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E169">
         <v>66000</v>
@@ -8119,16 +8119,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B170" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C170" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D170" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E170">
         <v>61000</v>
@@ -8136,16 +8136,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B171" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C171" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D171" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E171">
         <v>50500</v>
@@ -8153,16 +8153,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B172" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C172" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D172" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E172">
         <v>82300</v>
@@ -8170,16 +8170,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B173" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C173" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D173" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E173">
         <v>80500</v>
@@ -8187,16 +8187,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B174" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C174" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D174" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E174">
         <v>9465</v>
@@ -8204,16 +8204,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B175" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C175" t="s">
+        <v>627</v>
+      </c>
+      <c r="D175" t="s">
         <v>626</v>
-      </c>
-      <c r="D175" t="s">
-        <v>625</v>
       </c>
       <c r="E175">
         <v>3056</v>
@@ -8221,16 +8221,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B176" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C176" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D176" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E176">
         <v>49000</v>
@@ -8238,16 +8238,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B177" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C177" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D177" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E177">
         <v>44440</v>
@@ -8255,16 +8255,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B178" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C178" t="s">
+        <v>638</v>
+      </c>
+      <c r="D178" t="s">
         <v>637</v>
-      </c>
-      <c r="D178" t="s">
-        <v>636</v>
       </c>
       <c r="E178">
         <v>25000</v>
@@ -8272,16 +8272,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B179" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C179" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D179" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E179">
         <v>4552000</v>
@@ -8289,16 +8289,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B180" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C180" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D180" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E180">
         <v>135283</v>
@@ -8306,16 +8306,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B181" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C181" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D181" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E181">
         <v>8640</v>
@@ -8323,13 +8323,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B182" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D182" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E182">
         <v>617300</v>
@@ -8337,16 +8337,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B183" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C183" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D183" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E183">
         <v>43800</v>
@@ -8354,16 +8354,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B184" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C184" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D184" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E184">
         <v>12900</v>
@@ -8371,16 +8371,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B185" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C185" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D185" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E185">
         <v>16600</v>
@@ -8388,16 +8388,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B186" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C186" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D186" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E186">
         <v>65050</v>
@@ -8405,16 +8405,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B187" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C187" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D187" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E187">
         <v>971000</v>
@@ -8422,16 +8422,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B188" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C188" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D188" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E188">
         <v>10700</v>
@@ -8439,16 +8439,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B189" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C189" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D189" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E189">
         <v>12900</v>
@@ -8456,16 +8456,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B190" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C190" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D190" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E190">
         <v>26000</v>
@@ -8473,16 +8473,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B191" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C191" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D191" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E191">
         <v>141900</v>
@@ -8490,16 +8490,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B192" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C192" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D192" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E192">
         <v>78000</v>
@@ -8507,16 +8507,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B193" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C193" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D193" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E193">
         <v>2041000</v>
@@ -8524,16 +8524,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B194" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C194" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D194" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E194">
         <v>19027</v>
@@ -8541,16 +8541,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B195" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C195" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D195" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E195">
         <v>720</v>
@@ -8558,16 +8558,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B196" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C196" t="s">
+        <v>692</v>
+      </c>
+      <c r="D196" t="s">
         <v>691</v>
-      </c>
-      <c r="D196" t="s">
-        <v>690</v>
       </c>
       <c r="E196">
         <v>43193</v>
@@ -8575,16 +8575,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B197" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C197" t="s">
+        <v>695</v>
+      </c>
+      <c r="D197" t="s">
         <v>694</v>
-      </c>
-      <c r="D197" t="s">
-        <v>693</v>
       </c>
       <c r="E197">
         <v>5874</v>
@@ -8592,16 +8592,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B198" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C198" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D198" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E198">
         <v>74773</v>
@@ -8609,16 +8609,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B199" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C199" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D199" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E199">
         <v>189000</v>
@@ -8626,16 +8626,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B200" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C200" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D200" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E200">
         <v>29508</v>
@@ -8643,16 +8643,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B201" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C201" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D201" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E201">
         <v>50000</v>
@@ -8660,16 +8660,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B202" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C202" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D202" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E202">
         <v>226500</v>
@@ -8677,16 +8677,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B203" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C203" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D203" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E203">
         <v>145600</v>
@@ -8694,16 +8694,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B204" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C204" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D204" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E204">
         <v>249358</v>
@@ -8711,16 +8711,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B205" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C205" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D205" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E205">
         <v>27700</v>
@@ -8728,16 +8728,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B206" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C206" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D206" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E206">
         <v>18312</v>
@@ -8745,16 +8745,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B207" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C207" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D207" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E207">
         <v>38102000</v>
@@ -8765,13 +8765,13 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C208" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D208" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E208">
         <v>57041</v>
@@ -8779,16 +8779,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B209" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C209" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D209" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E209">
         <v>125000</v>
@@ -8796,16 +8796,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B210" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C210" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D210" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E210">
         <v>11768</v>
@@ -8813,16 +8813,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B211" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C211" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D211" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E211">
         <v>732000</v>
@@ -8830,16 +8830,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B212" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C212" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D212" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E212">
         <v>13328</v>
@@ -8850,13 +8850,13 @@
         <v>16</v>
       </c>
       <c r="B213" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C213" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D213" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E213">
         <v>45600</v>
@@ -8864,16 +8864,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B214" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C214" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D214" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E214">
         <v>81264</v>
@@ -8881,16 +8881,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B215" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C215" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D215" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E215">
         <v>16405</v>
@@ -8898,16 +8898,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B216" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C216" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D216" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E216">
         <v>185600</v>
@@ -8915,16 +8915,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B217" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C217" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D217" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E217">
         <v>67000</v>
@@ -8932,16 +8932,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B218" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C218" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D218" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E218">
         <v>240000</v>
@@ -8949,16 +8949,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B219" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C219" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D219" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E219">
         <v>266369</v>
@@ -8966,16 +8966,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B220" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C220" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D220" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E220">
         <v>37960</v>
@@ -8983,16 +8983,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B221" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C221" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D221" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E221">
         <v>2400</v>
@@ -9000,16 +9000,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B222" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C222" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D222" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E222">
         <v>9688</v>
@@ -9017,16 +9017,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B223" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C223" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D223" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E223">
         <v>700</v>
@@ -9034,16 +9034,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B224" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C224" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D224" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E224">
         <v>51000</v>
@@ -9051,16 +9051,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B225" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C225" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D225" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E225">
         <v>15600</v>
@@ -9068,16 +9068,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B226" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C226" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D226" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E226">
         <v>241100</v>
@@ -9085,16 +9085,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B227" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C227" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D227" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E227">
         <v>38967</v>
@@ -9102,16 +9102,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B228" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C228" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D228" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E228">
         <v>381000</v>
@@ -9119,16 +9119,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B229" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C229" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D229" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E229">
         <v>128300</v>
@@ -9149,19 +9149,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9169,16 +9169,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9186,16 +9186,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9203,16 +9203,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9220,16 +9220,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C5" t="s">
+        <v>816</v>
+      </c>
+      <c r="D5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E5" t="s">
         <v>814</v>
-      </c>
-      <c r="C5" t="s">
-        <v>815</v>
-      </c>
-      <c r="D5" t="s">
-        <v>816</v>
-      </c>
-      <c r="E5" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9237,16 +9237,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C6" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9254,16 +9254,16 @@
         <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9271,16 +9271,16 @@
         <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C8" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D8" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9288,16 +9288,16 @@
         <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9305,16 +9305,16 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9322,16 +9322,16 @@
         <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -9356,7 +9356,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -9371,10 +9371,10 @@
         <v>6: RES ELE</v>
       </c>
       <c r="C2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9386,7 +9386,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9398,7 +9398,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9407,10 +9407,10 @@
         <v>22: RES CHG</v>
       </c>
       <c r="C5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Constrained_Head_BC/Code/cdec_reservoirs.xlsx
+++ b/Constrained_Head_BC/Code/cdec_reservoirs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanchor\Documents\GitHub\C2VSimFGv2.0_surface_water\Constrained_Head_BC\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95DF9E-D65D-464A-81A1-3000F638B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2D609-F02A-43F6-B530-1DAF68BC5C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
